--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>GnomeSort</t>
   </si>
@@ -41,12 +41,6 @@
     <t>RadixSort</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Datos desordenados generales</t>
-  </si>
-  <si>
     <t>Ordenado</t>
   </si>
   <si>
@@ -54,6 +48,21 @@
   </si>
   <si>
     <t>Teorico</t>
+  </si>
+  <si>
+    <t>Cantidad de numeros</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Anaranjado</t>
+  </si>
+  <si>
+    <t>Gris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teorico </t>
   </si>
 </sst>
 </file>
@@ -69,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,11 +97,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -101,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,31 +170,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -287,6 +356,9 @@
               <c:f>Hoja1!$N$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -372,6 +444,94 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AB43-4E3F-9132-1DD2B8E930FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$6:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C130-4747-8095-DFA11E43B803}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -414,8 +574,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -747,6 +908,94 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$9:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>11.65</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>13.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17DE-45CA-8631-B4C8DCE3C1A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -786,8 +1035,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -937,37 +1187,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1146,6 +1366,94 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F675-4D18-81A3-91A0EB3681CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$12:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2F6-45D9-B160-32E47478266C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1188,8 +1496,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1521,6 +1830,94 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$15:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D84-42CE-A428-BD7B2772B0C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1560,8 +1957,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1893,6 +2291,94 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$18:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3619-4CE1-9C8D-419D87FDD1A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1932,8 +2418,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5377,10 +5864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q50"/>
+  <dimension ref="B1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5390,492 +5877,564 @@
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5">
+      <c r="I3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="11">
         <v>10</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="11">
         <v>500</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="11">
         <v>1000</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="11">
         <v>1500</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="11">
         <v>2000</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="11">
         <v>2500</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="11">
         <v>3000</v>
       </c>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="J4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="13">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="13">
         <v>2.95</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="13">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="13">
         <v>16.399999999999999</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="13">
         <v>14.6</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="13">
         <v>14.7</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="I5" s="12"/>
+      <c r="J5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="13">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="13">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="13">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="13">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="13">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="13">
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="13">
+        <v>5</v>
+      </c>
+      <c r="M6" s="13">
+        <v>10</v>
+      </c>
+      <c r="N6" s="13">
+        <v>15</v>
+      </c>
+      <c r="O6" s="13">
+        <v>20</v>
+      </c>
+      <c r="P6" s="13">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>30</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="J7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="11">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="11">
         <v>6.38</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="11">
         <v>9.34</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="11">
         <v>10.9</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="11">
         <v>9.77</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="11">
         <v>26.2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="I8" s="14"/>
+      <c r="J8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="11">
         <v>5.93</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="11">
         <v>3.76</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="11">
         <v>6.9</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="11">
         <v>10.1</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="11">
         <v>9.23</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="11">
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2.33</v>
+      </c>
+      <c r="M9" s="15">
+        <v>4.66</v>
+      </c>
+      <c r="N9" s="15">
+        <v>6.99</v>
+      </c>
+      <c r="O9" s="15">
+        <v>9.32</v>
+      </c>
+      <c r="P9" s="15">
+        <v>11.65</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>13.98</v>
+      </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="J10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="13">
         <v>1.43</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="13">
         <v>2.39</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="13">
         <v>3.14</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="13">
         <v>3.39</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="13">
         <v>9.42</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="13">
         <v>6.16</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="13">
         <v>5.89</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="I11" s="12"/>
+      <c r="J11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="13">
         <v>0.218</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="13">
         <v>2.57</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="13">
         <v>3.6</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="13">
         <v>4.1900000000000004</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="13">
         <v>8.5</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="13">
         <v>5.97</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="13">
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="M12" s="13">
+        <v>1.71</v>
+      </c>
+      <c r="N12" s="13">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="O12" s="13">
+        <v>3.42</v>
+      </c>
+      <c r="P12" s="13">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>5.13</v>
+      </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="J13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="11">
         <v>0.08</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="11">
         <v>0.36799999999999999</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="11">
         <v>0.77700000000000002</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="11">
         <v>9.2899999999999991</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="11">
         <v>5.32</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="11">
         <v>1.63</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="11">
         <v>1.49</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="I14" s="14"/>
+      <c r="J14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="11">
         <v>0.17199999999999999</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="11">
         <v>0.46</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="11">
         <v>0.59499999999999997</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="11">
         <v>1.33</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="11">
         <v>1.48</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="11">
         <v>1.1499999999999999</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="11">
         <v>2.12</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="O15" s="11">
+        <v>1.63</v>
+      </c>
+      <c r="P15" s="11">
+        <v>2.04</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>2.4500000000000002</v>
+      </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="9">
+      <c r="J16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="13">
         <v>0.23200000000000001</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="13">
         <v>0.36399999999999999</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="13">
         <v>1.56</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="13">
         <v>2.39</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="13">
         <v>2.73</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="9">
+      <c r="I17" s="12"/>
+      <c r="J17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="13">
         <v>0.23799999999999999</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="13">
         <v>0.53900000000000003</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="13">
         <v>0.91100000000000003</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="13">
         <v>1.32</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="13">
         <v>1.82</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="13">
         <v>1.77</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="13">
         <v>2.57</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="O18" s="13">
+        <v>1.204</v>
+      </c>
+      <c r="P18" s="13">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>1.81</v>
+      </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -5883,9 +6442,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -5893,19 +6452,25 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
+      <c r="R21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -5914,20 +6479,32 @@
         <v>4</v>
       </c>
       <c r="K22" s="4"/>
+      <c r="R22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
+      <c r="R23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -5935,72 +6512,72 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="5" t="s">
         <v>2</v>
       </c>
@@ -6009,49 +6586,49 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
